--- a/src/cim-apidoc/web/mappings/PrimaryCareResourceMap.xlsx
+++ b/src/cim-apidoc/web/mappings/PrimaryCareResourceMap.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Source\Endeavour\FHIR-Profiles\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Code\GitHub\FHIR-Profiles\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="12375" windowHeight="6630" tabRatio="685" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="12375" windowHeight="6630" tabRatio="685"/>
   </bookViews>
   <sheets>
     <sheet name="Condition" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,16 @@
     <sheet name="MedicationOrder" sheetId="15" r:id="rId13"/>
     <sheet name="Encounter" sheetId="10" r:id="rId14"/>
     <sheet name="Composition" sheetId="11" r:id="rId15"/>
+    <sheet name="Organization" sheetId="21" r:id="rId16"/>
+    <sheet name="Schedule" sheetId="22" r:id="rId17"/>
+    <sheet name="Slot" sheetId="23" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="464">
   <si>
     <t>PrimaryCare-Condition</t>
   </si>
@@ -1260,6 +1263,171 @@
   </si>
   <si>
     <t>prescribedAsContraceptive</t>
+  </si>
+  <si>
+    <t>PrimaryCare-Organization</t>
+  </si>
+  <si>
+    <t>primarycare-date-extension</t>
+  </si>
+  <si>
+    <t>primarycare-location-extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (1st slice) odsCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    system</t>
+  </si>
+  <si>
+    <t>Fixed value: http://endeavourhealth.org/fhir/identifier#odscode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    value</t>
+  </si>
+  <si>
+    <t>organisation.nationalPracticeCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (2nd slice) systemSupplierIdentifier</t>
+  </si>
+  <si>
+    <t>organisation.cdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    openDate</t>
+  </si>
+  <si>
+    <t>organisation.openDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    closeDate</t>
+  </si>
+  <si>
+    <t>organisation.closeDate</t>
+  </si>
+  <si>
+    <t>organisation.closeDate is null or is &gt; getdate()</t>
+  </si>
+  <si>
+    <t>Example value:  http://emishealth.com/fhir/identifier#cdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  coding</t>
+  </si>
+  <si>
+    <t>Fixed value:  http://endeavourhealth.org/fhir/ValueSet/primarycare-organization-type</t>
+  </si>
+  <si>
+    <t>organisation.organisationType.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    display</t>
+  </si>
+  <si>
+    <t>organisation.organisationType.displayName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  text</t>
+  </si>
+  <si>
+    <t>When coded value unavailable</t>
+  </si>
+  <si>
+    <t>organisation.name</t>
+  </si>
+  <si>
+    <t>part of</t>
+  </si>
+  <si>
+    <t>organisation.parentOrganisation</t>
+  </si>
+  <si>
+    <t>mainLocation</t>
+  </si>
+  <si>
+    <t>organisation.mainLocation</t>
+  </si>
+  <si>
+    <t>PrimaryCare-Schedule</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>primarycare-additional-actor-extension</t>
+  </si>
+  <si>
+    <t>EmisOpen</t>
+  </si>
+  <si>
+    <t>planningHorizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  end</t>
+  </si>
+  <si>
+    <t>additionalActors</t>
+  </si>
+  <si>
+    <t>AppointmentSession.Site</t>
+  </si>
+  <si>
+    <t>AppointmentSession.HolderList (remaining)</t>
+  </si>
+  <si>
+    <t>AppointmentSession.HolderList (first)</t>
+  </si>
+  <si>
+    <t>AppointmentSession.Date + .StartTime</t>
+  </si>
+  <si>
+    <t>AppointmentSession.Date + EndTime</t>
+  </si>
+  <si>
+    <t>PrimaryCare-Slot</t>
+  </si>
+  <si>
+    <t>Slot</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>schedule.id</t>
+  </si>
+  <si>
+    <t>freeBusyType</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>overbooked</t>
+  </si>
+  <si>
+    <t>Slot.Status</t>
+  </si>
+  <si>
+    <t>AppointmentSession.Date + Slot.StartTime</t>
+  </si>
+  <si>
+    <t>AppointmentSession.Date + Slot.StartTime + Slot.SlotLength</t>
+  </si>
+  <si>
+    <t>Slot.Notes + Slot.Reason</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1543,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1456,14 +1624,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1528,6 +1688,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1818,9 +1987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
-    </sheetView>
+    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
@@ -1836,39 +2003,39 @@
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="2:6" s="43" customFormat="1">
-      <c r="B4" s="47"/>
-      <c r="C4" s="69" t="s">
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+    </row>
+    <row r="4" spans="2:6" s="39" customFormat="1">
+      <c r="B4" s="43"/>
+      <c r="C4" s="65" t="s">
         <v>385</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="3" t="s">
@@ -2170,22 +2337,22 @@
       <c r="A31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="44" t="s">
         <v>380</v>
       </c>
-      <c r="C31" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="48" t="s">
+      <c r="C31" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="45"/>
+      <c r="E31" s="41"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="52" t="s">
         <v>381</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="48" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2194,13 +2361,13 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="52" t="s">
         <v>382</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="44" t="s">
         <v>383</v>
       </c>
       <c r="E33" s="2"/>
@@ -2241,47 +2408,47 @@
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="4"/>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="69" t="s">
         <v>371</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="4"/>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="69" t="s">
         <v>372</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="3" t="s">
@@ -2592,31 +2759,31 @@
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="68" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="69" t="s">
         <v>373</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="3" t="s">
@@ -2641,7 +2808,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="71" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2653,7 +2820,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="39"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="1" t="s">
@@ -2665,7 +2832,7 @@
       <c r="D9" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="21" t="s">
@@ -2675,7 +2842,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="39"/>
+      <c r="E10" s="71"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="12" t="s">
@@ -2687,7 +2854,7 @@
       <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="21" t="s">
@@ -2699,7 +2866,7 @@
       <c r="D12" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E12" s="39"/>
+      <c r="E12" s="71"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="21" t="s">
@@ -2711,7 +2878,7 @@
       <c r="D13" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="21" t="s">
@@ -2720,7 +2887,7 @@
       <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="22" t="s">
@@ -2729,7 +2896,7 @@
       <c r="C15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="22" t="s">
@@ -2741,7 +2908,7 @@
       <c r="D16" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="22" t="s">
@@ -2753,7 +2920,7 @@
       <c r="D17" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="71"/>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" s="22" t="s">
@@ -2765,7 +2932,7 @@
       <c r="D18" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E18" s="39"/>
+      <c r="E18" s="71"/>
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="22" t="s">
@@ -2777,7 +2944,7 @@
       <c r="D19" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="71"/>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="22" t="s">
@@ -2789,7 +2956,7 @@
       <c r="D20" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="71"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="10" t="s">
@@ -2804,7 +2971,7 @@
       <c r="D21" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="71"/>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="21" t="s">
@@ -2813,7 +2980,7 @@
       <c r="C22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="71"/>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" s="22" t="s">
@@ -2822,7 +2989,7 @@
       <c r="C23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="39"/>
+      <c r="E23" s="71"/>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="22" t="s">
@@ -2831,7 +2998,7 @@
       <c r="C24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="71"/>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="22" t="s">
@@ -2840,7 +3007,7 @@
       <c r="C25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="71"/>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="21" t="s">
@@ -2850,7 +3017,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="39"/>
+      <c r="E26" s="71"/>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="22" t="s">
@@ -2859,7 +3026,7 @@
       <c r="C27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="39"/>
+      <c r="E27" s="71"/>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="22" t="s">
@@ -2868,7 +3035,7 @@
       <c r="C28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="39"/>
+      <c r="E28" s="71"/>
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="22" t="s">
@@ -2877,7 +3044,7 @@
       <c r="C29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="39"/>
+      <c r="E29" s="71"/>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="22" t="s">
@@ -2886,7 +3053,7 @@
       <c r="C30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="39"/>
+      <c r="E30" s="71"/>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="22" t="s">
@@ -2895,7 +3062,7 @@
       <c r="C31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="39"/>
+      <c r="E31" s="71"/>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" s="22" t="s">
@@ -2904,7 +3071,7 @@
       <c r="C32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="39"/>
+      <c r="E32" s="71"/>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1"/>
@@ -2928,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2943,467 +3110,467 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="68" t="s">
         <v>403</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="42" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="39" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="71" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="48" t="s">
+      <c r="C10" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="71"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="39"/>
+      <c r="C12" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="71"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="39"/>
+      <c r="C14" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="48" t="s">
+      <c r="C15" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="44" t="s">
         <v>391</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="43" t="s">
+      <c r="C16" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="71"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="43"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="39"/>
+      <c r="E18" s="71"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="71"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="43" t="s">
+      <c r="C20" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="71"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="C21" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="44" t="s">
+      <c r="C21" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="E21" s="39"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="53" t="s">
+      <c r="E21" s="71"/>
+    </row>
+    <row r="22" spans="1:5" s="39" customFormat="1">
+      <c r="A22" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="71"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="C22" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="43" t="s">
+      <c r="C23" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="39"/>
-    </row>
-    <row r="23" spans="1:5" s="43" customFormat="1">
-      <c r="A23" s="53" t="s">
+      <c r="E23" s="71"/>
+    </row>
+    <row r="24" spans="1:5" s="39" customFormat="1">
+      <c r="A24" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B24" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="C23" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="43" t="s">
+      <c r="C24" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="39"/>
-    </row>
-    <row r="24" spans="1:5" s="43" customFormat="1">
-      <c r="A24" s="53" t="s">
+      <c r="E24" s="71"/>
+    </row>
+    <row r="25" spans="1:5" s="39" customFormat="1">
+      <c r="A25" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B25" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="C24" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="43" t="s">
+      <c r="C25" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="39"/>
-    </row>
-    <row r="25" spans="1:5" s="43" customFormat="1">
-      <c r="A25" s="53" t="s">
+      <c r="E25" s="71"/>
+    </row>
+    <row r="26" spans="1:5" s="39" customFormat="1">
+      <c r="A26" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B26" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="C25" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="43" t="s">
+      <c r="C26" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="E25" s="39"/>
-    </row>
-    <row r="26" spans="1:5" s="43" customFormat="1">
-      <c r="A26" s="53" t="s">
+      <c r="E26" s="71"/>
+    </row>
+    <row r="27" spans="1:5" s="39" customFormat="1">
+      <c r="A27" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B27" s="39" t="s">
         <v>396</v>
       </c>
-      <c r="C26" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="43" t="s">
+      <c r="C27" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="E26" s="39"/>
-    </row>
-    <row r="27" spans="1:5" s="43" customFormat="1">
-      <c r="A27" s="53" t="s">
+      <c r="E27" s="71"/>
+    </row>
+    <row r="28" spans="1:5" s="39" customFormat="1">
+      <c r="A28" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B28" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="C27" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="43" t="s">
+      <c r="C28" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="39"/>
-    </row>
-    <row r="28" spans="1:5" s="43" customFormat="1">
-      <c r="A28" s="53" t="s">
+      <c r="E28" s="71"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="39"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="53" t="s">
+      <c r="B29" s="59" t="s">
+        <v>398</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="71"/>
+    </row>
+    <row r="30" spans="1:5" s="39" customFormat="1">
+      <c r="A30" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="63" t="s">
-        <v>398</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="39"/>
-    </row>
-    <row r="30" spans="1:5" s="43" customFormat="1">
-      <c r="A30" s="53" t="s">
+      <c r="B30" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="71"/>
+    </row>
+    <row r="31" spans="1:5" s="39" customFormat="1">
+      <c r="A31" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E30" s="39"/>
-    </row>
-    <row r="31" spans="1:5" s="43" customFormat="1">
-      <c r="A31" s="53" t="s">
+      <c r="B31" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>400</v>
+      </c>
+      <c r="E31" s="71"/>
+    </row>
+    <row r="32" spans="1:5" s="39" customFormat="1">
+      <c r="A32" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="52" t="s">
+      <c r="B32" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="63" t="s">
-        <v>400</v>
-      </c>
-      <c r="E31" s="39"/>
-    </row>
-    <row r="32" spans="1:5" s="43" customFormat="1">
-      <c r="A32" s="53" t="s">
+      <c r="D32" s="59" t="s">
+        <v>401</v>
+      </c>
+      <c r="E32" s="71"/>
+    </row>
+    <row r="33" spans="1:5" s="39" customFormat="1">
+      <c r="A33" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="E32" s="39"/>
-    </row>
-    <row r="33" spans="1:5" s="43" customFormat="1">
-      <c r="A33" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="63" t="s">
+      <c r="B33" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="59" t="s">
         <v>402</v>
       </c>
-      <c r="E33" s="39"/>
-    </row>
-    <row r="34" spans="1:5" s="43" customFormat="1">
-      <c r="B34" s="63"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="65"/>
+      <c r="E33" s="71"/>
+    </row>
+    <row r="34" spans="1:5" s="39" customFormat="1">
+      <c r="B34" s="59"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="61"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="59" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="E35" s="65"/>
+      <c r="E35" s="61"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="59" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="E36" s="65"/>
+      <c r="E36" s="61"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="59" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="E37" s="65"/>
+      <c r="E37" s="61"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="59" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="65"/>
+      <c r="E38" s="61"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="59" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="E39" s="65"/>
+      <c r="E39" s="61"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="59" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="65"/>
+      <c r="E40" s="61"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="E41" s="65"/>
+      <c r="E41" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3421,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3439,31 +3606,31 @@
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="3" t="s">
@@ -3818,94 +3985,94 @@
       <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="49" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>405</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="48" t="s">
         <v>37</v>
       </c>
       <c r="D39" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="43" customFormat="1">
-      <c r="A40" s="53" t="s">
+    <row r="40" spans="1:5" s="39" customFormat="1">
+      <c r="A40" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="C40" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="42" t="s">
+      <c r="C40" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="38" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="43" customFormat="1">
-      <c r="A41" s="53" t="s">
+    <row r="41" spans="1:5" s="39" customFormat="1">
+      <c r="A41" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="59" t="s">
         <v>393</v>
       </c>
-      <c r="C41" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="63" t="s">
+      <c r="C41" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="59" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="43" customFormat="1">
-      <c r="A42" s="53" t="s">
+    <row r="42" spans="1:5" s="39" customFormat="1">
+      <c r="A42" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="C42" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="63" t="s">
+      <c r="C42" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="59" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="43" customFormat="1">
-      <c r="A43" s="53" t="s">
+    <row r="43" spans="1:5" s="39" customFormat="1">
+      <c r="A43" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="59" t="s">
         <v>395</v>
       </c>
-      <c r="C43" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="63" t="s">
+      <c r="C43" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="59" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="43" customFormat="1">
-      <c r="A44" s="53" t="s">
+    <row r="44" spans="1:5" s="39" customFormat="1">
+      <c r="A44" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="59" t="s">
         <v>408</v>
       </c>
-      <c r="C44" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="63" t="s">
+      <c r="C44" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="59" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="43" customFormat="1">
-      <c r="A45" s="64"/>
+    <row r="45" spans="1:5" s="39" customFormat="1">
+      <c r="A45" s="60"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="D46" s="70" t="s">
+      <c r="D46" s="66" t="s">
         <v>348</v>
       </c>
       <c r="E46" t="s">
@@ -3913,7 +4080,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="D47" s="70" t="s">
+      <c r="D47" s="66" t="s">
         <v>350</v>
       </c>
       <c r="E47" t="s">
@@ -3921,7 +4088,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="D48" s="70" t="s">
+      <c r="D48" s="66" t="s">
         <v>352</v>
       </c>
       <c r="E48" t="s">
@@ -3929,7 +4096,7 @@
       </c>
     </row>
     <row r="49" spans="4:5">
-      <c r="D49" s="70" t="s">
+      <c r="D49" s="66" t="s">
         <v>353</v>
       </c>
       <c r="E49" t="s">
@@ -3937,7 +4104,7 @@
       </c>
     </row>
     <row r="50" spans="4:5">
-      <c r="D50" s="70" t="s">
+      <c r="D50" s="66" t="s">
         <v>356</v>
       </c>
       <c r="E50" t="s">
@@ -3945,17 +4112,17 @@
       </c>
     </row>
     <row r="51" spans="4:5">
-      <c r="D51" s="70" t="s">
+      <c r="D51" s="66" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="52" spans="4:5">
-      <c r="D52" s="70" t="s">
+      <c r="D52" s="66" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="53" spans="4:5">
-      <c r="D53" s="70" t="s">
+      <c r="D53" s="66" t="s">
         <v>362</v>
       </c>
     </row>
@@ -3999,7 +4166,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection sqref="A1:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4016,29 +4183,29 @@
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="3" t="s">
@@ -4346,29 +4513,29 @@
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="68" t="s">
         <v>374</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="3" t="s">
@@ -4393,7 +4560,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="71" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4407,7 +4574,7 @@
       <c r="D8" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="11" t="s">
@@ -4417,7 +4584,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="39"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="20" t="s">
@@ -4426,7 +4593,7 @@
       <c r="C10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="71"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="11" t="s">
@@ -4435,7 +4602,7 @@
       <c r="C11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="11" t="s">
@@ -4444,7 +4611,7 @@
       <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="39"/>
+      <c r="E12" s="71"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="20" t="s">
@@ -4453,7 +4620,7 @@
       <c r="C13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="11" t="s">
@@ -4465,7 +4632,7 @@
       <c r="D14" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="11" t="s">
@@ -4477,7 +4644,7 @@
       <c r="D15" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
@@ -4486,7 +4653,7 @@
       <c r="C16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
@@ -4495,7 +4662,7 @@
       <c r="C17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="71"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
@@ -4504,7 +4671,7 @@
       <c r="C18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="39"/>
+      <c r="E18" s="71"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="1" t="s">
@@ -4516,7 +4683,7 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="71"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
@@ -4525,7 +4692,7 @@
       <c r="C20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="71"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="27" t="s">
@@ -4537,7 +4704,7 @@
       <c r="D21" t="s">
         <v>273</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="71"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="27" t="s">
@@ -4546,7 +4713,7 @@
       <c r="C22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="71"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="34" t="s">
@@ -4555,7 +4722,7 @@
       <c r="C23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="39"/>
+      <c r="E23" s="71"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="27" t="s">
@@ -4564,7 +4731,7 @@
       <c r="C24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="71"/>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="27" t="s">
@@ -4573,7 +4740,7 @@
       <c r="C25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="71"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="34" t="s">
@@ -4582,7 +4749,7 @@
       <c r="C26" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="71"/>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="27" t="s">
@@ -4591,7 +4758,7 @@
       <c r="C27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="39"/>
+      <c r="E27" s="71"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="31" t="s">
@@ -4603,7 +4770,7 @@
       <c r="D28" t="s">
         <v>274</v>
       </c>
-      <c r="E28" s="39"/>
+      <c r="E28" s="71"/>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="31" t="s">
@@ -4615,16 +4782,16 @@
       <c r="D29" t="s">
         <v>275</v>
       </c>
-      <c r="E29" s="39"/>
+      <c r="E29" s="71"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="37" t="s">
         <v>268</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="39"/>
+      <c r="E30" s="71"/>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="31" t="s">
@@ -4633,7 +4800,7 @@
       <c r="C31" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="39"/>
+      <c r="E31" s="71"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="31" t="s">
@@ -4645,16 +4812,16 @@
       <c r="D32" t="s">
         <v>276</v>
       </c>
-      <c r="E32" s="39"/>
+      <c r="E32" s="71"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="37" t="s">
         <v>271</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="39"/>
+      <c r="E33" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4662,6 +4829,782 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="E7:E33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="5" style="39" customWidth="1"/>
+    <col min="4" max="4" width="41.625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="36" style="39" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="43"/>
+      <c r="C4" s="69" t="s">
+        <v>411</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="67" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="41"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="41"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="39" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="41" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="56" t="s">
+        <v>417</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="41" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>422</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="E16" s="41"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="41"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="56" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="39" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="E20" s="41"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="44" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="41" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="41" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="56" t="s">
+        <v>434</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="44" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>436</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="E25" s="41"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="C26" s="48"/>
+      <c r="D26" s="44"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="C27" s="48"/>
+      <c r="D27" s="44"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28" s="48"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="C29" s="48"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="C30" s="48"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="C31" s="48"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="C32" s="48"/>
+      <c r="D32" s="44"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="48"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="48"/>
+      <c r="D34" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="5" style="39" customWidth="1"/>
+    <col min="4" max="4" width="41.625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="36" style="39" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>439</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="43"/>
+      <c r="C4" s="69" t="s">
+        <v>411</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="67" t="s">
+        <v>438</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42" t="s">
+        <v>442</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="41"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="44"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="56" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="41" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="56"/>
+      <c r="E16" s="41"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="56"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="41"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="56"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="56"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="41"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="56"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="56"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="44"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="56"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="41"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="56"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="41"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="56"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="44"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="56"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="41"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="C26" s="48"/>
+      <c r="D26" s="44"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="C27" s="48"/>
+      <c r="D27" s="44"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="C28" s="48"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="C29" s="48"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="C30" s="48"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="C31" s="48"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="C32" s="48"/>
+      <c r="D32" s="44"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="48"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="48"/>
+      <c r="D34" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E34"/>
+  <sheetViews>
+    <sheetView showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="5" style="39" customWidth="1"/>
+    <col min="4" max="4" width="41.625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="36" style="39" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>453</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="43"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="67" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42" t="s">
+        <v>442</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="41"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="39" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="56" t="s">
+        <v>456</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="44" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="56" t="s">
+        <v>457</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="41" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="56" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="56"/>
+      <c r="E16" s="41"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="56"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="41"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="56"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="56"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="41"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="56"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="56"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="44"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="56"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="41"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="56"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="41"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="56"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="44"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="56"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="41"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="C26" s="48"/>
+      <c r="D26" s="44"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="C27" s="48"/>
+      <c r="D27" s="44"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="C28" s="48"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="C29" s="48"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="C30" s="48"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="C31" s="48"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="C32" s="48"/>
+      <c r="D32" s="44"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="48"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="48"/>
+      <c r="D34" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4678,388 +5621,388 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="28.625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="5" style="43" customWidth="1"/>
-    <col min="4" max="4" width="35.375" style="43" customWidth="1"/>
-    <col min="5" max="5" width="33.875" style="43" customWidth="1"/>
-    <col min="6" max="6" width="41.5" style="43" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="43"/>
+    <col min="1" max="1" width="4.625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="5" style="39" customWidth="1"/>
+    <col min="4" max="4" width="35.375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="33.875" style="39" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="68" t="s">
         <v>379</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="47"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="69" t="s">
         <v>386</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="47"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="69" t="s">
         <v>387</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="47"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="47"/>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="69" t="s">
         <v>389</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="47"/>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="69" t="s">
         <v>390</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="58"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="42" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="43" t="s">
+      <c r="D12" s="41"/>
+      <c r="E12" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="39" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
+      <c r="C14" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="39" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="45" t="s">
+      <c r="C16" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="45"/>
+      <c r="E16" s="41"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="45"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="48" t="s">
+      <c r="C19" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="45"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="C20" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="48" t="s">
+      <c r="C21" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="45"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="48" t="s">
+      <c r="C22" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="45"/>
+      <c r="E22" s="41"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
+      <c r="C23" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="45"/>
+      <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="48" t="s">
+      <c r="C25" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="43" t="s">
+      <c r="C26" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="E26" s="39" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="39" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
+      <c r="C29" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="45" t="s">
+      <c r="C30" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="45"/>
+      <c r="E30" s="41"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="45" t="s">
+      <c r="C31" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="45"/>
+      <c r="E31" s="41"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
+      <c r="C34" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="45" t="s">
+      <c r="C35" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5067,91 +6010,91 @@
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="45"/>
+      <c r="E36" s="41"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="45" t="s">
+      <c r="C37" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="45"/>
+      <c r="E37" s="41"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
+      <c r="C38" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="45"/>
+      <c r="E39" s="41"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="60" t="s">
+      <c r="D40" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="45"/>
+      <c r="E40" s="41"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="C41" s="45"/>
-      <c r="E41" s="45"/>
+      <c r="C41" s="41"/>
+      <c r="E41" s="41"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="D44" s="45"/>
+      <c r="D44" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5191,39 +6134,39 @@
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="4"/>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="3" t="s">
@@ -5515,74 +6458,74 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="36" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="43" customFormat="1">
-      <c r="B33" s="61" t="s">
+    <row r="33" spans="1:3" s="39" customFormat="1">
+      <c r="B33" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="43" customFormat="1">
-      <c r="B34" s="61" t="s">
+      <c r="C33" s="48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="39" customFormat="1">
+      <c r="B34" s="57" t="s">
         <v>375</v>
       </c>
-      <c r="C34" s="52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="43" customFormat="1">
-      <c r="B35" s="56" t="s">
+      <c r="C34" s="48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="39" customFormat="1">
+      <c r="B35" s="52" t="s">
         <v>376</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="53" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="43" customFormat="1">
-      <c r="B36" s="61" t="s">
+    <row r="36" spans="1:3" s="39" customFormat="1">
+      <c r="B36" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="43" customFormat="1">
-      <c r="B37" s="61" t="s">
+      <c r="C36" s="48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="39" customFormat="1">
+      <c r="B37" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="43" customFormat="1">
-      <c r="B38" s="61" t="s">
+      <c r="C37" s="48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="39" customFormat="1">
+      <c r="B38" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="43" customFormat="1">
-      <c r="B39" s="61" t="s">
+      <c r="C38" s="48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="39" customFormat="1">
+      <c r="B39" s="57" t="s">
         <v>377</v>
       </c>
-      <c r="C39" s="52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="43" customFormat="1">
-      <c r="B40" s="61" t="s">
+      <c r="C39" s="48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="39" customFormat="1">
+      <c r="B40" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="48" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5631,39 +6574,39 @@
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="4"/>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="3" t="s">
@@ -5951,10 +6894,10 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="48" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6084,55 +7027,55 @@
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="4"/>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="4"/>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="4"/>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="3" t="s">
@@ -6157,7 +7100,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="70" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6171,7 +7114,7 @@
       <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="70"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="5" t="s">
@@ -6183,7 +7126,7 @@
       <c r="D12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="38"/>
+      <c r="E12" s="70"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="12" t="s">
@@ -6193,7 +7136,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="38"/>
+      <c r="E13" s="70"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="5" t="s">
@@ -6203,7 +7146,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="38"/>
+      <c r="E14" s="70"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="12" t="s">
@@ -6215,7 +7158,7 @@
       <c r="D15" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="38"/>
+      <c r="E15" s="70"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="7" t="s">
@@ -6225,7 +7168,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="38"/>
+      <c r="E16" s="70"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="8" t="s">
@@ -6237,7 +7180,7 @@
       <c r="D17" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="38"/>
+      <c r="E17" s="70"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="8" t="s">
@@ -6247,7 +7190,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="38"/>
+      <c r="E18" s="70"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="8" t="s">
@@ -6259,7 +7202,7 @@
       <c r="D19" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="38"/>
+      <c r="E19" s="70"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="8" t="s">
@@ -6271,7 +7214,7 @@
       <c r="D20" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="38"/>
+      <c r="E20" s="70"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="8" t="s">
@@ -6281,7 +7224,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="38"/>
+      <c r="E21" s="70"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="7" t="s">
@@ -6291,7 +7234,7 @@
         <v>37</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="38"/>
+      <c r="E22" s="70"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="5" t="s">
@@ -6301,7 +7244,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="38"/>
+      <c r="E23" s="70"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="21" t="s">
@@ -6311,7 +7254,7 @@
         <v>37</v>
       </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="38"/>
+      <c r="E24" s="70"/>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="21" t="s">
@@ -6321,7 +7264,7 @@
         <v>37</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="38"/>
+      <c r="E25" s="70"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="5" t="s">
@@ -6331,7 +7274,7 @@
         <v>37</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="38"/>
+      <c r="E26" s="70"/>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="13" t="s">
@@ -6340,7 +7283,7 @@
       <c r="C27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="38"/>
+      <c r="E27" s="70"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="15" t="s">
@@ -6349,7 +7292,7 @@
       <c r="C28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="38"/>
+      <c r="E28" s="70"/>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="15" t="s">
@@ -6358,7 +7301,7 @@
       <c r="C29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="38"/>
+      <c r="E29" s="70"/>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="14" t="s">
@@ -6368,7 +7311,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="38"/>
+      <c r="E30" s="70"/>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="12" t="s">
@@ -6380,7 +7323,7 @@
       <c r="D31" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="38"/>
+      <c r="E31" s="70"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="22" t="s">
@@ -6390,7 +7333,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="38"/>
+      <c r="E32" s="70"/>
     </row>
     <row r="33" spans="1:5">
       <c r="B33" s="8" t="s">
@@ -6402,7 +7345,7 @@
       <c r="D33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="38"/>
+      <c r="E33" s="70"/>
     </row>
     <row r="34" spans="1:5">
       <c r="B34" s="23" t="s">
@@ -6414,7 +7357,7 @@
       <c r="D34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="38"/>
+      <c r="E34" s="70"/>
     </row>
     <row r="35" spans="1:5">
       <c r="B35" s="23" t="s">
@@ -6424,7 +7367,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="38"/>
+      <c r="E35" s="70"/>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="23" t="s">
@@ -6436,7 +7379,7 @@
       <c r="D36" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="38"/>
+      <c r="E36" s="70"/>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" s="23" t="s">
@@ -6448,7 +7391,7 @@
       <c r="D37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="38"/>
+      <c r="E37" s="70"/>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" s="23" t="s">
@@ -6458,7 +7401,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="38"/>
+      <c r="E38" s="70"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="10" t="s">
@@ -6473,7 +7416,7 @@
       <c r="D39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="38"/>
+      <c r="E39" s="70"/>
     </row>
     <row r="40" spans="1:5">
       <c r="B40" s="8" t="s">
@@ -6485,7 +7428,7 @@
       <c r="D40" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="38"/>
+      <c r="E40" s="70"/>
     </row>
     <row r="41" spans="1:5">
       <c r="B41" s="7" t="s">
@@ -6495,7 +7438,7 @@
         <v>37</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="38"/>
+      <c r="E41" s="70"/>
     </row>
     <row r="42" spans="1:5">
       <c r="B42" s="7" t="s">
@@ -6505,7 +7448,7 @@
         <v>37</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="38"/>
+      <c r="E42" s="70"/>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" s="7" t="s">
@@ -6514,7 +7457,7 @@
       <c r="C43" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="38"/>
+      <c r="E43" s="70"/>
     </row>
     <row r="44" spans="1:5">
       <c r="B44" s="24" t="s">
@@ -6523,7 +7466,7 @@
       <c r="C44" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="38"/>
+      <c r="E44" s="70"/>
     </row>
     <row r="45" spans="1:5">
       <c r="B45" s="24" t="s">
@@ -6532,7 +7475,7 @@
       <c r="C45" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="38"/>
+      <c r="E45" s="70"/>
     </row>
     <row r="46" spans="1:5">
       <c r="B46" s="25" t="s">
@@ -6544,7 +7487,7 @@
       <c r="D46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="38"/>
+      <c r="E46" s="70"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="10" t="s">
@@ -6559,7 +7502,7 @@
       <c r="D47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="38"/>
+      <c r="E47" s="70"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="10" t="s">
@@ -6571,7 +7514,7 @@
       <c r="C48" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="38"/>
+      <c r="E48" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6610,31 +7553,31 @@
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="3" t="s">
@@ -6659,7 +7602,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="26"/>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="71" t="s">
         <v>144</v>
       </c>
       <c r="F7" s="26"/>
@@ -6672,7 +7615,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="39"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="27" t="s">
@@ -6684,7 +7627,7 @@
       <c r="D9" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="28" t="s">
@@ -6696,7 +7639,7 @@
       <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="71"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="28" t="s">
@@ -6708,7 +7651,7 @@
       <c r="D11" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="28" t="s">
@@ -6720,7 +7663,7 @@
       <c r="D12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="39"/>
+      <c r="E12" s="71"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="28" t="s">
@@ -6732,7 +7675,7 @@
       <c r="D13" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="11" t="s">
@@ -6744,7 +7687,7 @@
       <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="11" t="s">
@@ -6756,7 +7699,7 @@
       <c r="D15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="11" t="s">
@@ -6768,7 +7711,7 @@
       <c r="D16" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" spans="1:5">
       <c r="B17" t="s">
@@ -6778,7 +7721,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="39"/>
+      <c r="E17" s="71"/>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" t="s">
@@ -6790,7 +7733,7 @@
       <c r="D18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="39"/>
+      <c r="E18" s="71"/>
     </row>
     <row r="19" spans="1:5">
       <c r="B19" t="s">
@@ -6802,7 +7745,7 @@
       <c r="D19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="71"/>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="7" t="s">
@@ -6814,7 +7757,7 @@
       <c r="D20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="71"/>
     </row>
     <row r="21" spans="1:5">
       <c r="B21" s="8" t="s">
@@ -6826,7 +7769,7 @@
       <c r="D21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="71"/>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="8" t="s">
@@ -6836,7 +7779,7 @@
         <v>37</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="39"/>
+      <c r="E22" s="71"/>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" s="8" t="s">
@@ -6848,7 +7791,7 @@
       <c r="D23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="39"/>
+      <c r="E23" s="71"/>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="8" t="s">
@@ -6860,7 +7803,7 @@
       <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="71"/>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="8" t="s">
@@ -6870,7 +7813,7 @@
         <v>37</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="39"/>
+      <c r="E25" s="71"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="10" t="s">
@@ -6885,7 +7828,7 @@
       <c r="D26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="71"/>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="7" t="s">
@@ -6897,7 +7840,7 @@
       <c r="D27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="39"/>
+      <c r="E27" s="71"/>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="13" t="s">
@@ -6909,7 +7852,7 @@
       <c r="D28" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="39"/>
+      <c r="E28" s="71"/>
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="13" t="s">
@@ -6918,7 +7861,7 @@
       <c r="C29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="39"/>
+      <c r="E29" s="71"/>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="13" t="s">
@@ -6930,7 +7873,7 @@
       <c r="D30" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="39"/>
+      <c r="E30" s="71"/>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="13" t="s">
@@ -6942,7 +7885,7 @@
       <c r="D31" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="39"/>
+      <c r="E31" s="71"/>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="20" t="s">
@@ -7008,31 +7951,31 @@
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="68" t="s">
         <v>309</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="3" t="s">
@@ -7057,7 +8000,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="71" t="s">
         <v>144</v>
       </c>
     </row>
@@ -7071,7 +8014,7 @@
       <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="11" t="s">
@@ -7083,7 +8026,7 @@
       <c r="D9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="7" t="s">
@@ -7095,7 +8038,7 @@
       <c r="D10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="71"/>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="8" t="s">
@@ -7107,7 +8050,7 @@
       <c r="D11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="8" t="s">
@@ -7117,7 +8060,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="39"/>
+      <c r="E12" s="71"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="8" t="s">
@@ -7129,7 +8072,7 @@
       <c r="D13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="8" t="s">
@@ -7141,7 +8084,7 @@
       <c r="D14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="8" t="s">
@@ -7151,7 +8094,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="39"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10" t="s">
@@ -7166,7 +8109,7 @@
       <c r="D16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="7" t="s">
@@ -7178,7 +8121,7 @@
       <c r="D17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="71"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="13" t="s">
@@ -7187,7 +8130,7 @@
       <c r="C18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="39"/>
+      <c r="E18" s="71"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="13" t="s">
@@ -7196,7 +8139,7 @@
       <c r="C19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="71"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="13" t="s">
@@ -7208,7 +8151,7 @@
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="71"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="13" t="s">
@@ -7217,7 +8160,7 @@
       <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="71"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="13" t="s">
@@ -7226,7 +8169,7 @@
       <c r="C22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="71"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="13" t="s">
@@ -7235,7 +8178,7 @@
       <c r="C23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="39"/>
+      <c r="E23" s="71"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="13" t="s">
@@ -7247,7 +8190,7 @@
       <c r="D24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="71"/>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="13" t="s">
@@ -7256,7 +8199,7 @@
       <c r="C25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="71"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="13" t="s">
@@ -7265,7 +8208,7 @@
       <c r="C26" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="71"/>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="13" t="s">
@@ -7274,7 +8217,7 @@
       <c r="C27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="39"/>
+      <c r="E27" s="71"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="13" t="s">
@@ -7283,7 +8226,7 @@
       <c r="C28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="39"/>
+      <c r="E28" s="71"/>
     </row>
     <row r="29" spans="2:5">
       <c r="E29" s="33"/>
@@ -7311,7 +8254,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection sqref="A1:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -7328,31 +8271,31 @@
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="3" t="s">
@@ -7728,29 +8671,29 @@
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="3" t="s">
@@ -7774,7 +8717,7 @@
       <c r="C7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="71" t="s">
         <v>144</v>
       </c>
       <c r="E7" t="s">
@@ -7788,7 +8731,7 @@
       <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="39"/>
+      <c r="D8" s="71"/>
       <c r="E8" t="s">
         <v>282</v>
       </c>
@@ -7800,7 +8743,7 @@
       <c r="C9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="71"/>
       <c r="E9" t="s">
         <v>39</v>
       </c>
@@ -7812,7 +8755,7 @@
       <c r="C10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="71"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="1" t="s">
@@ -7821,7 +8764,7 @@
       <c r="C11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="71"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="1" t="s">
@@ -7830,7 +8773,7 @@
       <c r="C12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:6">
@@ -7840,7 +8783,7 @@
       <c r="C13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="71"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="1" t="s">
@@ -7849,7 +8792,7 @@
       <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="71"/>
       <c r="E14" t="s">
         <v>44</v>
       </c>
@@ -7861,7 +8804,7 @@
       <c r="C15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="71"/>
       <c r="E15" t="s">
         <v>283</v>
       </c>
@@ -7873,7 +8816,7 @@
       <c r="C16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="71"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="14" t="s">
@@ -7882,7 +8825,7 @@
       <c r="C17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="71"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="22" t="s">
@@ -7891,7 +8834,7 @@
       <c r="C18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="71"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="35" t="s">
@@ -7900,7 +8843,7 @@
       <c r="C19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="71"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="34" t="s">
@@ -7909,7 +8852,7 @@
       <c r="C20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="39"/>
+      <c r="D20" s="71"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="21" t="s">
@@ -7918,7 +8861,7 @@
       <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="39"/>
+      <c r="D21" s="71"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="14" t="s">
@@ -7927,7 +8870,7 @@
       <c r="C22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="39"/>
+      <c r="D22" s="71"/>
       <c r="E22" t="s">
         <v>284</v>
       </c>
@@ -7939,7 +8882,7 @@
       <c r="C23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="71"/>
       <c r="E23" t="s">
         <v>200</v>
       </c>
@@ -7951,7 +8894,7 @@
       <c r="C24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="39"/>
+      <c r="D24" s="71"/>
       <c r="E24" t="s">
         <v>108</v>
       </c>
@@ -7963,7 +8906,7 @@
       <c r="C25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="71"/>
       <c r="E25" t="s">
         <v>44</v>
       </c>
@@ -7975,7 +8918,7 @@
       <c r="C26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="39"/>
+      <c r="D26" s="71"/>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="1" t="s">
@@ -7984,7 +8927,7 @@
       <c r="C27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="39"/>
+      <c r="D27" s="71"/>
       <c r="E27" t="s">
         <v>86</v>
       </c>
